--- a/IPMI_AutoCommand/IPMI_Commands.xlsx
+++ b/IPMI_AutoCommand/IPMI_Commands.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C16BB9-61C5-4784-AE2F-66DA2C4E7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10641A1-B52A-4BBE-8D89-1E1C2C266ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="510">
   <si>
     <t>NetFn</t>
   </si>
@@ -1634,6 +1634,93 @@
   </si>
   <si>
     <t>ACPIPowerStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01 0xff</t>
+  </si>
+  <si>
+    <t>20 04 00 00 00 00 e0</t>
+  </si>
+  <si>
+    <t>0x01 0xff 0x00 0x00</t>
+  </si>
+  <si>
+    <t>00 00</t>
+  </si>
+  <si>
+    <t>0x06 0x3f 0x6d 0x6a 0x55 0x6e 0x73 0x78</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>3f 4e 46 41 57 5e 63</t>
+  </si>
+  <si>
+    <t>0x01 0xc0 0x95 0x0a 0x95 0x0a</t>
+  </si>
+  <si>
+    <t>c0 95 0a 95 0a</t>
+  </si>
+  <si>
+    <t>0x01 0x00</t>
+  </si>
+  <si>
+    <t>c0 00 00 00 00</t>
+  </si>
+  <si>
+    <t>54 c0 c0 00</t>
+  </si>
+  <si>
+    <t>0x01 0x02 0x01</t>
+  </si>
+  <si>
+    <t>02 01</t>
+  </si>
+  <si>
+    <t>ff 00 00</t>
+  </si>
+  <si>
+    <t>0x00 0x00 0x00 0xff</t>
+  </si>
+  <si>
+    <t>68 01 01 02 04 08 00 00 f0 01 00 01 04 00 00 03
+ f7 01 02 17 c5 53 30 36 31 37 c0 c0 c1 00 00 00
+ c0 01 04 00 00 7f 98 c3 46 58 4c c5 53 30 36 31
+ 37 c0 c8 46 58 2d 53 30 36 31 37 c0 c0 c1 00 00
+ 9d 01 05 00 c3 46 54 50 c7 46 58 4c 53 30 36 31
+ c7 46 58 2d 53 30 36 31 c3 31 2e 31 c0 c0 c0 c0
+ c1 00 00 00 00 00 00 00 19</t>
+  </si>
+  <si>
+    <t>0x00 0x00 0x00 0x01 0x01 0x02 0x04 0x08 0x00 0x00 0xf0</t>
+  </si>
+  <si>
+    <t>51 08 00 4c fb 5d 55 0b 5b 43 d2 ff 4e 0f</t>
+  </si>
+  <si>
+    <t>ba 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02 00 01 00 02 61 48 01 4f 01 00 04 01 1f 00 0a
+ 04 06</t>
+  </si>
+  <si>
+    <t>0x01 0x00 0x02 0xab 0xcd 0xef 0x00 0x01 0x00 0x04 0x01 0x17 0x00 0xa0 0x04 0x07</t>
+  </si>
+  <si>
+    <t>01 00</t>
+  </si>
+  <si>
+    <t>0x00 0x00 0x00 0x00 0x00 0xff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1834,13 +1921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2641,7 +2728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2726,22 +2813,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2759,31 +2839,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2810,45 +2887,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -2857,12 +2895,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2944,9 +2976,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2983,27 +3012,89 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal 3" xfId="4" xr:uid="{79BE17F1-211F-42ED-AE0F-0D5FB9EA9204}"/>
@@ -3315,98 +3406,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="70" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="71" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="72"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="74">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="72"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="72" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="72"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="72" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="73" t="s">
         <v>451</v>
       </c>
     </row>
@@ -3420,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -3436,13 +3527,13 @@
     <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="22.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
     <col min="20" max="16384" width="8.85546875" style="2"/>
@@ -3450,30 +3541,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1">
       <c r="A1" s="19"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="79" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="115" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="79" t="s">
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="81"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:20" ht="79.5" thickBot="1">
       <c r="A2" s="10"/>
@@ -3516,13 +3607,13 @@
       <c r="N2" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="140" t="s">
         <v>452</v>
       </c>
       <c r="R2" s="11"/>
@@ -3530,30 +3621,30 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="12.75">
       <c r="A4" s="13" t="s">
         <v>332</v>
       </c>
@@ -3577,19 +3668,23 @@
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="141">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37">
+        <v>15</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="12.75">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -3613,19 +3708,23 @@
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="142">
+        <v>0</v>
+      </c>
       <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="43"/>
+      <c r="M5" s="36">
+        <v>0</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3649,14 +3748,18 @@
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="42"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="142">
+        <v>0</v>
+      </c>
       <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="43"/>
+      <c r="M6" s="36">
+        <v>0</v>
+      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -3688,18 +3791,22 @@
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="142">
+        <v>0</v>
+      </c>
       <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="43"/>
+      <c r="M7" s="36">
+        <v>2</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="12.75">
       <c r="A8" s="7" t="s">
         <v>319</v>
       </c>
@@ -3723,19 +3830,19 @@
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="43"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="12.75">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3759,19 +3866,19 @@
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="142"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="43"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="12.75">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -3795,19 +3902,19 @@
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="142"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="43"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="12.75">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3831,19 +3938,23 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="42"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="142">
+        <v>0</v>
+      </c>
       <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="43"/>
+      <c r="M11" s="36">
+        <v>16</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="12.75">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3867,19 +3978,19 @@
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="142"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="43"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="12.75">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3903,19 +4014,19 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="142"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="43"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="12.75">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -3939,19 +4050,19 @@
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="42"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="142"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="43"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="12.75">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3975,14 +4086,14 @@
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="42"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="142"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="43"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -4011,19 +4122,19 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="142"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="43"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="12.75">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -4047,19 +4158,19 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="42"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="142"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="43"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="40"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="12.75">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -4083,19 +4194,19 @@
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="142"/>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="43"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" ht="12.75">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -4119,19 +4230,19 @@
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="142"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="43"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="12.75">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4155,19 +4266,19 @@
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="42"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="142"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="43"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1">
+    <row r="21" spans="1:20" ht="13.5" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -4191,38 +4302,38 @@
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="122"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -4253,19 +4364,19 @@
         <v>43</v>
       </c>
       <c r="I23" s="30"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" ht="12.75">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -4289,19 +4400,19 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="42"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="142"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="43"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="40"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5" thickBot="1">
+    <row r="25" spans="1:20" ht="13.5" thickBot="1">
       <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
@@ -4325,38 +4436,38 @@
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="122"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -4387,19 +4498,19 @@
         <v>43</v>
       </c>
       <c r="I27" s="30"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" ht="12.75">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
@@ -4423,19 +4534,19 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="42"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="142"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="43"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="40"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" ht="12.75">
       <c r="A29" s="7" t="s">
         <v>51</v>
       </c>
@@ -4459,19 +4570,19 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="42"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="142"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="43"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="40"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" ht="12.75">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -4495,14 +4606,20 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="42"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="142">
+        <v>0</v>
+      </c>
       <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="43"/>
+      <c r="M30" s="36">
+        <v>1</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="40"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -4531,14 +4648,14 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="42"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="142"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="43"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="40"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -4569,14 +4686,14 @@
         <v>43</v>
       </c>
       <c r="I32" s="26"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="42"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="142"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="43"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="40"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -4607,14 +4724,14 @@
         <v>61</v>
       </c>
       <c r="I33" s="26"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="42"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="142"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="43"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="40"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -4643,14 +4760,14 @@
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="42"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="142"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="43"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="40"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -4681,19 +4798,19 @@
         <v>66</v>
       </c>
       <c r="I35" s="26"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="42"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="142"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="43"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="40"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" ht="12.75">
       <c r="A36" s="7" t="s">
         <v>67</v>
       </c>
@@ -4717,14 +4834,14 @@
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="42"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="142"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="43"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="40"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -4753,14 +4870,14 @@
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="42"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="142"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="43"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="40"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -4789,14 +4906,14 @@
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="26"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="42"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="142"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="43"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="40"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -4827,19 +4944,19 @@
         <v>75</v>
       </c>
       <c r="I39" s="26"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="42"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="142"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="43"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="40"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" ht="12.75">
       <c r="A40" s="7" t="s">
         <v>76</v>
       </c>
@@ -4863,19 +4980,19 @@
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="42"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="142"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="43"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="40"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" ht="12.75">
       <c r="A41" s="7" t="s">
         <v>78</v>
       </c>
@@ -4899,14 +5016,14 @@
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="42"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="142"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="43"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="40"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
@@ -4935,19 +5052,19 @@
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="42"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="142"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="43"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="40"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" ht="12.75">
       <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
@@ -4971,19 +5088,19 @@
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="42"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="142"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="43"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="40"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" ht="12.75">
       <c r="A44" s="7" t="s">
         <v>84</v>
       </c>
@@ -5007,19 +5124,19 @@
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="42"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="142"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="43"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="40"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" ht="12.75">
       <c r="A45" s="7" t="s">
         <v>86</v>
       </c>
@@ -5043,19 +5160,19 @@
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="42"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="142"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="43"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="40"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" ht="12.75">
       <c r="A46" s="7" t="s">
         <v>88</v>
       </c>
@@ -5079,19 +5196,19 @@
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="42"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="142"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="43"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="40"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" ht="12.75">
       <c r="A47" s="7" t="s">
         <v>90</v>
       </c>
@@ -5115,19 +5232,19 @@
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="42"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="142"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="43"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" ht="12.75">
       <c r="A48" s="7" t="s">
         <v>92</v>
       </c>
@@ -5151,19 +5268,19 @@
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="42"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="142"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="43"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" ht="12.75">
       <c r="A49" s="7" t="s">
         <v>94</v>
       </c>
@@ -5187,19 +5304,19 @@
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="26"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="42"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="142"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="43"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" ht="12.75">
       <c r="A50" s="7" t="s">
         <v>96</v>
       </c>
@@ -5223,19 +5340,19 @@
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="42"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="142"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="43"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="40"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" ht="12.75">
       <c r="A51" s="7" t="s">
         <v>98</v>
       </c>
@@ -5259,14 +5376,14 @@
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="42"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="142"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="43"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="40"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -5297,14 +5414,14 @@
         <v>75</v>
       </c>
       <c r="I52" s="26"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="42"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="142"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="43"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="40"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -5333,14 +5450,14 @@
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="26"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="42"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="142"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="43"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="40"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -5371,19 +5488,19 @@
         <v>106</v>
       </c>
       <c r="I54" s="26"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="42"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="142"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="43"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="40"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" ht="12.75">
       <c r="A55" s="7" t="s">
         <v>107</v>
       </c>
@@ -5407,14 +5524,14 @@
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="42"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="142"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="43"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="40"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -5443,14 +5560,14 @@
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="26"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="42"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="142"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="43"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="40"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -5479,14 +5596,14 @@
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="26"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="42"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="142"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="43"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="40"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -5515,14 +5632,14 @@
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="42"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="142"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="43"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -5551,14 +5668,14 @@
       </c>
       <c r="H59" s="24"/>
       <c r="I59" s="26"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="42"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="142"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="43"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="40"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -5587,14 +5704,14 @@
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="26"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="42"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="142"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="43"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="40"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
@@ -5623,14 +5740,14 @@
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="26"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="42"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="142"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="43"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="40"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -5659,14 +5776,14 @@
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="26"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="42"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="142"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="43"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="40"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
@@ -5697,14 +5814,14 @@
         <v>125</v>
       </c>
       <c r="I63" s="26"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="42"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="142"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="43"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
@@ -5735,14 +5852,14 @@
         <v>331</v>
       </c>
       <c r="I64" s="26"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="42"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="142"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="43"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="40"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
@@ -5773,14 +5890,14 @@
         <v>106</v>
       </c>
       <c r="I65" s="26"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="42"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="142"/>
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="43"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="40"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
@@ -5811,14 +5928,14 @@
         <v>128</v>
       </c>
       <c r="I66" s="26"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="42"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="142"/>
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="43"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="40"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
@@ -5849,43 +5966,43 @@
         <v>135</v>
       </c>
       <c r="I67" s="31"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="52"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="47"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
     <row r="68" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="78"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="121"/>
+      <c r="O68" s="121"/>
+      <c r="P68" s="121"/>
+      <c r="Q68" s="127"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" ht="12.75">
       <c r="A69" s="13" t="s">
         <v>137</v>
       </c>
@@ -5909,14 +6026,14 @@
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="56"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="145"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="51"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -5947,19 +6064,19 @@
         <v>321</v>
       </c>
       <c r="I70" s="26"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="42"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="142"/>
       <c r="L70" s="36"/>
       <c r="M70" s="36"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="43"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="40"/>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" ht="12.75">
       <c r="A71" s="7" t="s">
         <v>141</v>
       </c>
@@ -5983,19 +6100,19 @@
       </c>
       <c r="H71" s="24"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="42"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="142"/>
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="43"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="40"/>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" ht="12.75">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
@@ -6019,19 +6136,19 @@
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="42"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="142"/>
       <c r="L72" s="36"/>
       <c r="M72" s="36"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="43"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="40"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" ht="12.75">
       <c r="A73" s="7" t="s">
         <v>143</v>
       </c>
@@ -6055,19 +6172,19 @@
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="42"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="142"/>
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="43"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="40"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" ht="12.75">
       <c r="A74" s="7" t="s">
         <v>144</v>
       </c>
@@ -6091,19 +6208,19 @@
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="42"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="142"/>
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="43"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="40"/>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" ht="12.75">
       <c r="A75" s="7" t="s">
         <v>145</v>
       </c>
@@ -6127,14 +6244,14 @@
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="42"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="142"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="43"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="40"/>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
@@ -6163,14 +6280,14 @@
       </c>
       <c r="H76" s="24"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="42"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="142"/>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="43"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="40"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
@@ -6201,14 +6318,14 @@
         <v>148</v>
       </c>
       <c r="I77" s="26"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="42"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="142"/>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="43"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="40"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
@@ -6237,14 +6354,14 @@
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="26"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="42"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="142"/>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="43"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="40"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
@@ -6273,38 +6390,38 @@
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="31"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="52"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="47"/>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
     </row>
     <row r="80" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="78"/>
+      <c r="B80" s="121"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="121"/>
+      <c r="L80" s="121"/>
+      <c r="M80" s="121"/>
+      <c r="N80" s="121"/>
+      <c r="O80" s="121"/>
+      <c r="P80" s="121"/>
+      <c r="Q80" s="127"/>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
@@ -6333,14 +6450,14 @@
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="30"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="56"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="51"/>
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
@@ -6369,14 +6486,14 @@
       </c>
       <c r="H82" s="24"/>
       <c r="I82" s="26"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="43"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="40"/>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
@@ -6407,38 +6524,38 @@
         <v>157</v>
       </c>
       <c r="I83" s="31"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="51"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="52"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="47"/>
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
     </row>
     <row r="84" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="78"/>
+      <c r="B84" s="121"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="121"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="121"/>
+      <c r="N84" s="121"/>
+      <c r="O84" s="121"/>
+      <c r="P84" s="121"/>
+      <c r="Q84" s="127"/>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
@@ -6467,14 +6584,14 @@
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="30"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="56"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="50"/>
+      <c r="Q85" s="51"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
@@ -6503,14 +6620,14 @@
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="26"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="43"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="40"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
@@ -6539,14 +6656,14 @@
       </c>
       <c r="H87" s="24"/>
       <c r="I87" s="26"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="43"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="40"/>
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
@@ -6575,14 +6692,14 @@
       </c>
       <c r="H88" s="24"/>
       <c r="I88" s="26"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="43"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="40"/>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
@@ -6611,14 +6728,14 @@
       </c>
       <c r="H89" s="24"/>
       <c r="I89" s="26"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="43"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="40"/>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
@@ -6647,14 +6764,14 @@
       </c>
       <c r="H90" s="24"/>
       <c r="I90" s="26"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="43"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="40"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
@@ -6683,14 +6800,14 @@
       </c>
       <c r="H91" s="24"/>
       <c r="I91" s="26"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="43"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="40"/>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
@@ -6719,43 +6836,43 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="31"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="51"/>
-      <c r="O92" s="51"/>
-      <c r="P92" s="51"/>
-      <c r="Q92" s="52"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="47"/>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
     </row>
     <row r="93" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="77"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="78"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="121"/>
+      <c r="L93" s="121"/>
+      <c r="M93" s="121"/>
+      <c r="N93" s="121"/>
+      <c r="O93" s="121"/>
+      <c r="P93" s="121"/>
+      <c r="Q93" s="127"/>
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" ht="12.75">
       <c r="A94" s="13" t="s">
         <v>176</v>
       </c>
@@ -6779,19 +6896,19 @@
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="30"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="56"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="145"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="51"/>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" ht="12.75">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
@@ -6815,14 +6932,14 @@
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="42"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="142"/>
       <c r="L95" s="36"/>
       <c r="M95" s="36"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="43"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="40"/>
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
@@ -6851,14 +6968,14 @@
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="42"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="142"/>
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="43"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="40"/>
       <c r="R96" s="11"/>
       <c r="S96" s="11"/>
       <c r="T96" s="11"/>
@@ -6887,19 +7004,27 @@
       </c>
       <c r="H97" s="24"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="43"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="142">
+        <v>2</v>
+      </c>
+      <c r="L97" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="M97" s="36">
+        <v>7</v>
+      </c>
+      <c r="N97" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="40"/>
       <c r="R97" s="11"/>
       <c r="S97" s="11"/>
       <c r="T97" s="11"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" ht="12.75">
       <c r="A98" s="7" t="s">
         <v>183</v>
       </c>
@@ -6923,19 +7048,25 @@
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="43"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="142">
+        <v>4</v>
+      </c>
+      <c r="L98" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="M98" s="36">
+        <v>0</v>
+      </c>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="11"/>
       <c r="S98" s="11"/>
       <c r="T98" s="11"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" ht="12.75">
       <c r="A99" s="7" t="s">
         <v>184</v>
       </c>
@@ -6959,19 +7090,27 @@
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="26"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="43"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="142">
+        <v>2</v>
+      </c>
+      <c r="L99" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="M99" s="36">
+        <v>2</v>
+      </c>
+      <c r="N99" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="40"/>
       <c r="R99" s="11"/>
       <c r="S99" s="11"/>
       <c r="T99" s="11"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" ht="12.75">
       <c r="A100" s="7" t="s">
         <v>185</v>
       </c>
@@ -6995,19 +7134,23 @@
       </c>
       <c r="H100" s="24"/>
       <c r="I100" s="26"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="36"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="142">
+        <v>8</v>
+      </c>
+      <c r="L100" s="36" t="s">
+        <v>490</v>
+      </c>
       <c r="M100" s="36"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="43"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="40"/>
       <c r="R100" s="11"/>
       <c r="S100" s="11"/>
       <c r="T100" s="11"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" ht="12.75">
       <c r="A101" s="7" t="s">
         <v>187</v>
       </c>
@@ -7031,19 +7174,27 @@
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="26"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="43"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="142">
+        <v>1</v>
+      </c>
+      <c r="L101" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="M101" s="36">
+        <v>7</v>
+      </c>
+      <c r="N101" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="40"/>
       <c r="R101" s="11"/>
       <c r="S101" s="11"/>
       <c r="T101" s="11"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" ht="12.75">
       <c r="A102" s="7" t="s">
         <v>189</v>
       </c>
@@ -7067,19 +7218,25 @@
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="26"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="43"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="142">
+        <v>6</v>
+      </c>
+      <c r="L102" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="M102" s="36">
+        <v>0</v>
+      </c>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="40"/>
       <c r="R102" s="11"/>
       <c r="S102" s="11"/>
       <c r="T102" s="11"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" ht="12.75">
       <c r="A103" s="7" t="s">
         <v>191</v>
       </c>
@@ -7103,19 +7260,27 @@
       </c>
       <c r="H103" s="24"/>
       <c r="I103" s="26"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="43"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="142">
+        <v>1</v>
+      </c>
+      <c r="L103" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="M103" s="36">
+        <v>5</v>
+      </c>
+      <c r="N103" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="40"/>
       <c r="R103" s="11"/>
       <c r="S103" s="11"/>
       <c r="T103" s="11"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" ht="12.75">
       <c r="A104" s="7" t="s">
         <v>193</v>
       </c>
@@ -7139,19 +7304,25 @@
       </c>
       <c r="H104" s="24"/>
       <c r="I104" s="26"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="43"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="142">
+        <v>2</v>
+      </c>
+      <c r="L104" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="M104" s="36">
+        <v>0</v>
+      </c>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="40"/>
       <c r="R104" s="11"/>
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" ht="12.75">
       <c r="A105" s="7" t="s">
         <v>195</v>
       </c>
@@ -7175,19 +7346,27 @@
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="26"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="43"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="142">
+        <v>1</v>
+      </c>
+      <c r="L105" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="M105" s="36">
+        <v>5</v>
+      </c>
+      <c r="N105" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="40"/>
       <c r="R105" s="11"/>
       <c r="S105" s="11"/>
       <c r="T105" s="11"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" ht="12.75">
       <c r="A106" s="7" t="s">
         <v>197</v>
       </c>
@@ -7211,19 +7390,27 @@
       </c>
       <c r="H106" s="24"/>
       <c r="I106" s="26"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="43"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="142">
+        <v>1</v>
+      </c>
+      <c r="L106" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="M106" s="36">
+        <v>4</v>
+      </c>
+      <c r="N106" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="40"/>
       <c r="R106" s="11"/>
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" ht="12.75">
       <c r="A107" s="7" t="s">
         <v>199</v>
       </c>
@@ -7247,19 +7434,25 @@
       </c>
       <c r="H107" s="24"/>
       <c r="I107" s="26"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="37"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="43"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="142">
+        <v>3</v>
+      </c>
+      <c r="L107" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="M107" s="36">
+        <v>0</v>
+      </c>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="40"/>
       <c r="R107" s="11"/>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" ht="12.75">
       <c r="A108" s="7" t="s">
         <v>200</v>
       </c>
@@ -7283,14 +7476,22 @@
       </c>
       <c r="H108" s="24"/>
       <c r="I108" s="26"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="37"/>
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
-      <c r="Q108" s="43"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="142">
+        <v>1</v>
+      </c>
+      <c r="L108" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="M108" s="36">
+        <v>2</v>
+      </c>
+      <c r="N108" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="40"/>
       <c r="R108" s="11"/>
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
@@ -7321,38 +7522,38 @@
         <v>202</v>
       </c>
       <c r="I109" s="31"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="51"/>
-      <c r="P109" s="51"/>
-      <c r="Q109" s="52"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="144"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="47"/>
       <c r="R109" s="11"/>
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
     </row>
     <row r="110" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A110" s="76" t="s">
+      <c r="A110" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="77"/>
-      <c r="Q110" s="78"/>
+      <c r="B110" s="121"/>
+      <c r="C110" s="121"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="121"/>
+      <c r="H110" s="121"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="121"/>
+      <c r="K110" s="121"/>
+      <c r="L110" s="121"/>
+      <c r="M110" s="121"/>
+      <c r="N110" s="121"/>
+      <c r="O110" s="121"/>
+      <c r="P110" s="121"/>
+      <c r="Q110" s="127"/>
       <c r="R110" s="11"/>
       <c r="S110" s="11"/>
       <c r="T110" s="11"/>
@@ -7383,19 +7584,27 @@
         <v>205</v>
       </c>
       <c r="I111" s="30"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="55"/>
-      <c r="O111" s="55"/>
-      <c r="P111" s="55"/>
-      <c r="Q111" s="56"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="145">
+        <v>1</v>
+      </c>
+      <c r="L111" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="M111" s="50">
+        <v>3</v>
+      </c>
+      <c r="N111" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="O111" s="50"/>
+      <c r="P111" s="50"/>
+      <c r="Q111" s="51"/>
       <c r="R111" s="11"/>
       <c r="S111" s="11"/>
       <c r="T111" s="11"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" ht="12.75">
       <c r="A112" s="7" t="s">
         <v>206</v>
       </c>
@@ -7419,19 +7628,27 @@
       </c>
       <c r="H112" s="24"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="37"/>
-      <c r="O112" s="37"/>
-      <c r="P112" s="37"/>
-      <c r="Q112" s="43"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="142">
+        <v>4</v>
+      </c>
+      <c r="L112" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="M112" s="36">
+        <v>105</v>
+      </c>
+      <c r="N112" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="40"/>
       <c r="R112" s="11"/>
       <c r="S112" s="11"/>
       <c r="T112" s="11"/>
     </row>
-    <row r="113" spans="1:20" ht="16.5" thickBot="1">
+    <row r="113" spans="1:20" ht="13.5" thickBot="1">
       <c r="A113" s="15" t="s">
         <v>207</v>
       </c>
@@ -7455,43 +7672,47 @@
       </c>
       <c r="H113" s="29"/>
       <c r="I113" s="31"/>
-      <c r="J113" s="48"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="50"/>
-      <c r="M113" s="50"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="52"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="144">
+        <v>11</v>
+      </c>
+      <c r="L113" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="47"/>
       <c r="R113" s="11"/>
       <c r="S113" s="11"/>
       <c r="T113" s="11"/>
     </row>
     <row r="114" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="77"/>
-      <c r="Q114" s="78"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="121"/>
+      <c r="H114" s="121"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="121"/>
+      <c r="L114" s="121"/>
+      <c r="M114" s="121"/>
+      <c r="N114" s="121"/>
+      <c r="O114" s="121"/>
+      <c r="P114" s="121"/>
+      <c r="Q114" s="127"/>
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" ht="12.75">
       <c r="A115" s="13" t="s">
         <v>208</v>
       </c>
@@ -7514,20 +7735,20 @@
         <v>7</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="53"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="55"/>
-      <c r="O115" s="55"/>
-      <c r="P115" s="55"/>
-      <c r="Q115" s="56"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="145"/>
+      <c r="L115" s="50"/>
+      <c r="M115" s="50"/>
+      <c r="N115" s="50"/>
+      <c r="O115" s="50"/>
+      <c r="P115" s="50"/>
+      <c r="Q115" s="51"/>
       <c r="R115" s="11"/>
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" ht="12.75">
       <c r="A116" s="7" t="s">
         <v>209</v>
       </c>
@@ -7551,19 +7772,19 @@
       </c>
       <c r="H116" s="24"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="42"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="142"/>
       <c r="L116" s="36"/>
       <c r="M116" s="36"/>
-      <c r="N116" s="37"/>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37"/>
-      <c r="Q116" s="43"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="40"/>
       <c r="R116" s="11"/>
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" ht="12.75">
       <c r="A117" s="7" t="s">
         <v>210</v>
       </c>
@@ -7587,19 +7808,19 @@
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="42"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="142"/>
       <c r="L117" s="36"/>
       <c r="M117" s="36"/>
-      <c r="N117" s="37"/>
-      <c r="O117" s="37"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="43"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="40"/>
       <c r="R117" s="11"/>
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" ht="12.75">
       <c r="A118" s="7" t="s">
         <v>211</v>
       </c>
@@ -7623,19 +7844,19 @@
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="42"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="142"/>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="43"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="40"/>
       <c r="R118" s="11"/>
       <c r="S118" s="11"/>
       <c r="T118" s="11"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" ht="12.75">
       <c r="A119" s="7" t="s">
         <v>212</v>
       </c>
@@ -7659,19 +7880,19 @@
       </c>
       <c r="H119" s="24"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="42"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="142"/>
       <c r="L119" s="36"/>
       <c r="M119" s="36"/>
-      <c r="N119" s="37"/>
-      <c r="O119" s="37"/>
-      <c r="P119" s="37"/>
-      <c r="Q119" s="43"/>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="40"/>
       <c r="R119" s="11"/>
       <c r="S119" s="11"/>
       <c r="T119" s="11"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" ht="12.75">
       <c r="A120" s="7" t="s">
         <v>213</v>
       </c>
@@ -7695,19 +7916,19 @@
       </c>
       <c r="H120" s="24"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="42"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="142"/>
       <c r="L120" s="36"/>
       <c r="M120" s="36"/>
-      <c r="N120" s="37"/>
-      <c r="O120" s="37"/>
-      <c r="P120" s="37"/>
-      <c r="Q120" s="43"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="36"/>
+      <c r="Q120" s="40"/>
       <c r="R120" s="11"/>
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" ht="12.75">
       <c r="A121" s="7" t="s">
         <v>214</v>
       </c>
@@ -7731,19 +7952,19 @@
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="42"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="142"/>
       <c r="L121" s="36"/>
       <c r="M121" s="36"/>
-      <c r="N121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
-      <c r="Q121" s="43"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="40"/>
       <c r="R121" s="11"/>
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" ht="12.75">
       <c r="A122" s="7" t="s">
         <v>215</v>
       </c>
@@ -7767,19 +7988,19 @@
       </c>
       <c r="H122" s="24"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="42"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="142"/>
       <c r="L122" s="36"/>
       <c r="M122" s="36"/>
-      <c r="N122" s="37"/>
-      <c r="O122" s="37"/>
-      <c r="P122" s="37"/>
-      <c r="Q122" s="43"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="40"/>
       <c r="R122" s="11"/>
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" ht="12.75">
       <c r="A123" s="7" t="s">
         <v>216</v>
       </c>
@@ -7803,19 +8024,19 @@
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="42"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="142"/>
       <c r="L123" s="36"/>
       <c r="M123" s="36"/>
-      <c r="N123" s="37"/>
-      <c r="O123" s="37"/>
-      <c r="P123" s="37"/>
-      <c r="Q123" s="43"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="40"/>
       <c r="R123" s="11"/>
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" ht="12.75">
       <c r="A124" s="7" t="s">
         <v>217</v>
       </c>
@@ -7839,19 +8060,19 @@
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="42"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="142"/>
       <c r="L124" s="36"/>
       <c r="M124" s="36"/>
-      <c r="N124" s="37"/>
-      <c r="O124" s="37"/>
-      <c r="P124" s="37"/>
-      <c r="Q124" s="43"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="40"/>
       <c r="R124" s="11"/>
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" ht="12.75">
       <c r="A125" s="7" t="s">
         <v>218</v>
       </c>
@@ -7875,19 +8096,19 @@
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="42"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="142"/>
       <c r="L125" s="36"/>
       <c r="M125" s="36"/>
-      <c r="N125" s="37"/>
-      <c r="O125" s="37"/>
-      <c r="P125" s="37"/>
-      <c r="Q125" s="43"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="40"/>
       <c r="R125" s="11"/>
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" ht="12.75">
       <c r="A126" s="7" t="s">
         <v>219</v>
       </c>
@@ -7911,19 +8132,19 @@
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="42"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="142"/>
       <c r="L126" s="36"/>
       <c r="M126" s="36"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="43"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="40"/>
       <c r="R126" s="11"/>
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
     </row>
-    <row r="127" spans="1:20" ht="16.5" thickBot="1">
+    <row r="127" spans="1:20" ht="13.5" thickBot="1">
       <c r="A127" s="15" t="s">
         <v>220</v>
       </c>
@@ -7946,44 +8167,44 @@
         <v>7</v>
       </c>
       <c r="H127" s="29"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="49"/>
-      <c r="L127" s="50"/>
-      <c r="M127" s="50"/>
-      <c r="N127" s="51"/>
-      <c r="O127" s="51"/>
-      <c r="P127" s="51"/>
-      <c r="Q127" s="52"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="144"/>
+      <c r="L127" s="46"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="46"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="47"/>
       <c r="R127" s="11"/>
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
     </row>
     <row r="128" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A128" s="76" t="s">
+      <c r="A128" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="77"/>
-      <c r="G128" s="77"/>
-      <c r="H128" s="77"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="77"/>
-      <c r="Q128" s="78"/>
+      <c r="B128" s="121"/>
+      <c r="C128" s="121"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
+      <c r="G128" s="121"/>
+      <c r="H128" s="121"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="121"/>
+      <c r="L128" s="121"/>
+      <c r="M128" s="121"/>
+      <c r="N128" s="121"/>
+      <c r="O128" s="121"/>
+      <c r="P128" s="121"/>
+      <c r="Q128" s="127"/>
       <c r="R128" s="11"/>
       <c r="S128" s="11"/>
       <c r="T128" s="11"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" ht="12.75">
       <c r="A129" s="13" t="s">
         <v>222</v>
       </c>
@@ -8007,19 +8228,25 @@
       </c>
       <c r="H129" s="23"/>
       <c r="I129" s="30"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="55"/>
-      <c r="O129" s="55"/>
-      <c r="P129" s="55"/>
-      <c r="Q129" s="56"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="145">
+        <v>0</v>
+      </c>
+      <c r="L129" s="50"/>
+      <c r="M129" s="50">
+        <v>14</v>
+      </c>
+      <c r="N129" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="O129" s="50"/>
+      <c r="P129" s="50"/>
+      <c r="Q129" s="51"/>
       <c r="R129" s="11"/>
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" ht="12.75">
       <c r="A130" s="7" t="s">
         <v>223</v>
       </c>
@@ -8043,19 +8270,19 @@
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="26"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="42"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="142"/>
       <c r="L130" s="36"/>
       <c r="M130" s="36"/>
-      <c r="N130" s="37"/>
-      <c r="O130" s="37"/>
-      <c r="P130" s="37"/>
-      <c r="Q130" s="43"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="40"/>
       <c r="R130" s="11"/>
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" ht="12.75">
       <c r="A131" s="7" t="s">
         <v>224</v>
       </c>
@@ -8079,19 +8306,25 @@
       </c>
       <c r="H131" s="24"/>
       <c r="I131" s="26"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="42"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="142">
+        <v>0</v>
+      </c>
       <c r="L131" s="36"/>
-      <c r="M131" s="36"/>
-      <c r="N131" s="37"/>
-      <c r="O131" s="37"/>
-      <c r="P131" s="37"/>
-      <c r="Q131" s="43"/>
+      <c r="M131" s="36">
+        <v>2</v>
+      </c>
+      <c r="N131" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="O131" s="36"/>
+      <c r="P131" s="36"/>
+      <c r="Q131" s="40"/>
       <c r="R131" s="11"/>
       <c r="S131" s="11"/>
       <c r="T131" s="11"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" ht="12.75">
       <c r="A132" s="7" t="s">
         <v>225</v>
       </c>
@@ -8115,14 +8348,22 @@
       </c>
       <c r="H132" s="24"/>
       <c r="I132" s="26"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="37"/>
-      <c r="O132" s="37"/>
-      <c r="P132" s="37"/>
-      <c r="Q132" s="43"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="142">
+        <v>6</v>
+      </c>
+      <c r="L132" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="M132" s="36">
+        <v>18</v>
+      </c>
+      <c r="N132" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="40"/>
       <c r="R132" s="11"/>
       <c r="S132" s="11"/>
       <c r="T132" s="11"/>
@@ -8154,13 +8395,21 @@
       </c>
       <c r="I133" s="26"/>
       <c r="J133" s="24"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="43"/>
+      <c r="K133" s="142">
+        <v>16</v>
+      </c>
+      <c r="L133" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="M133" s="36">
+        <v>2</v>
+      </c>
+      <c r="N133" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="40"/>
       <c r="R133" s="11"/>
       <c r="S133" s="11"/>
       <c r="T133" s="11"/>
@@ -8192,18 +8441,18 @@
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="24"/>
-      <c r="K134" s="42"/>
+      <c r="K134" s="142"/>
       <c r="L134" s="36"/>
       <c r="M134" s="36"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="37"/>
-      <c r="Q134" s="43"/>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="P134" s="36"/>
+      <c r="Q134" s="40"/>
       <c r="R134" s="11"/>
       <c r="S134" s="11"/>
       <c r="T134" s="11"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" ht="12.75">
       <c r="A135" s="7" t="s">
         <v>229</v>
       </c>
@@ -8227,19 +8476,19 @@
       </c>
       <c r="H135" s="24"/>
       <c r="I135" s="26"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="42"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="142"/>
       <c r="L135" s="36"/>
       <c r="M135" s="36"/>
-      <c r="N135" s="37"/>
-      <c r="O135" s="37"/>
-      <c r="P135" s="37"/>
-      <c r="Q135" s="43"/>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="40"/>
       <c r="R135" s="11"/>
       <c r="S135" s="11"/>
       <c r="T135" s="11"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" ht="12.75">
       <c r="A136" s="7" t="s">
         <v>230</v>
       </c>
@@ -8263,19 +8512,19 @@
       </c>
       <c r="H136" s="24"/>
       <c r="I136" s="26"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="42"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="142"/>
       <c r="L136" s="36"/>
       <c r="M136" s="36"/>
-      <c r="N136" s="37"/>
-      <c r="O136" s="37"/>
-      <c r="P136" s="37"/>
-      <c r="Q136" s="43"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="36"/>
+      <c r="Q136" s="40"/>
       <c r="R136" s="11"/>
       <c r="S136" s="11"/>
       <c r="T136" s="11"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" ht="12.75">
       <c r="A137" s="7" t="s">
         <v>231</v>
       </c>
@@ -8299,19 +8548,19 @@
       </c>
       <c r="H137" s="24"/>
       <c r="I137" s="26"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="42"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="142"/>
       <c r="L137" s="36"/>
       <c r="M137" s="36"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="37"/>
-      <c r="Q137" s="43"/>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="36"/>
+      <c r="Q137" s="40"/>
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>
       <c r="T137" s="11"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" ht="12.75">
       <c r="A138" s="7" t="s">
         <v>232</v>
       </c>
@@ -8335,19 +8584,19 @@
       </c>
       <c r="H138" s="24"/>
       <c r="I138" s="26"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="42"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="142"/>
       <c r="L138" s="36"/>
       <c r="M138" s="36"/>
-      <c r="N138" s="37"/>
-      <c r="O138" s="37"/>
-      <c r="P138" s="37"/>
-      <c r="Q138" s="43"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="40"/>
       <c r="R138" s="11"/>
       <c r="S138" s="11"/>
       <c r="T138" s="11"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" ht="12.75">
       <c r="A139" s="7" t="s">
         <v>233</v>
       </c>
@@ -8371,19 +8620,19 @@
       </c>
       <c r="H139" s="24"/>
       <c r="I139" s="26"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="42"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="142"/>
       <c r="L139" s="36"/>
       <c r="M139" s="36"/>
-      <c r="N139" s="37"/>
-      <c r="O139" s="37"/>
-      <c r="P139" s="37"/>
-      <c r="Q139" s="43"/>
+      <c r="N139" s="36"/>
+      <c r="O139" s="36"/>
+      <c r="P139" s="36"/>
+      <c r="Q139" s="40"/>
       <c r="R139" s="11"/>
       <c r="S139" s="11"/>
       <c r="T139" s="11"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" ht="12.75">
       <c r="A140" s="7" t="s">
         <v>235</v>
       </c>
@@ -8407,19 +8656,19 @@
       </c>
       <c r="H140" s="24"/>
       <c r="I140" s="26"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="42"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="142"/>
       <c r="L140" s="36"/>
       <c r="M140" s="36"/>
-      <c r="N140" s="37"/>
-      <c r="O140" s="37"/>
-      <c r="P140" s="37"/>
-      <c r="Q140" s="43"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+      <c r="P140" s="36"/>
+      <c r="Q140" s="40"/>
       <c r="R140" s="11"/>
       <c r="S140" s="11"/>
       <c r="T140" s="11"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" ht="12.75">
       <c r="A141" s="7" t="s">
         <v>237</v>
       </c>
@@ -8443,19 +8692,19 @@
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="26"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="42"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="142"/>
       <c r="L141" s="36"/>
       <c r="M141" s="36"/>
-      <c r="N141" s="37"/>
-      <c r="O141" s="37"/>
-      <c r="P141" s="37"/>
-      <c r="Q141" s="43"/>
+      <c r="N141" s="36"/>
+      <c r="O141" s="36"/>
+      <c r="P141" s="36"/>
+      <c r="Q141" s="40"/>
       <c r="R141" s="11"/>
       <c r="S141" s="11"/>
       <c r="T141" s="11"/>
     </row>
-    <row r="142" spans="1:20" ht="16.5" thickBot="1">
+    <row r="142" spans="1:20" ht="13.5" thickBot="1">
       <c r="A142" s="15" t="s">
         <v>239</v>
       </c>
@@ -8479,38 +8728,38 @@
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="31"/>
-      <c r="J142" s="48"/>
-      <c r="K142" s="49"/>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="51"/>
-      <c r="O142" s="51"/>
-      <c r="P142" s="51"/>
-      <c r="Q142" s="52"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="144"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="47"/>
       <c r="R142" s="11"/>
       <c r="S142" s="11"/>
       <c r="T142" s="11"/>
     </row>
     <row r="143" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A143" s="76" t="s">
+      <c r="A143" s="120" t="s">
         <v>325</v>
       </c>
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="77"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="77"/>
-      <c r="L143" s="77"/>
-      <c r="M143" s="77"/>
-      <c r="N143" s="77"/>
-      <c r="O143" s="77"/>
-      <c r="P143" s="77"/>
-      <c r="Q143" s="78"/>
+      <c r="B143" s="121"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="121"/>
+      <c r="F143" s="121"/>
+      <c r="G143" s="121"/>
+      <c r="H143" s="121"/>
+      <c r="I143" s="121"/>
+      <c r="J143" s="121"/>
+      <c r="K143" s="121"/>
+      <c r="L143" s="121"/>
+      <c r="M143" s="121"/>
+      <c r="N143" s="121"/>
+      <c r="O143" s="121"/>
+      <c r="P143" s="121"/>
+      <c r="Q143" s="127"/>
       <c r="R143" s="11"/>
       <c r="S143" s="11"/>
       <c r="T143" s="11"/>
@@ -8541,14 +8790,14 @@
         <v>359</v>
       </c>
       <c r="I144" s="30"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="55"/>
-      <c r="O144" s="55"/>
-      <c r="P144" s="55"/>
-      <c r="Q144" s="56"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="145"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
+      <c r="Q144" s="51"/>
       <c r="R144" s="11"/>
       <c r="S144" s="11"/>
       <c r="T144" s="11"/>
@@ -8579,19 +8828,19 @@
         <v>360</v>
       </c>
       <c r="I145" s="26"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="42"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="142"/>
       <c r="L145" s="36"/>
       <c r="M145" s="36"/>
-      <c r="N145" s="37"/>
-      <c r="O145" s="37"/>
-      <c r="P145" s="37"/>
-      <c r="Q145" s="43"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
+      <c r="P145" s="36"/>
+      <c r="Q145" s="40"/>
       <c r="R145" s="11"/>
       <c r="S145" s="11"/>
       <c r="T145" s="11"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" ht="12.75">
       <c r="A146" s="7" t="s">
         <v>243</v>
       </c>
@@ -8615,19 +8864,19 @@
       </c>
       <c r="H146" s="24"/>
       <c r="I146" s="26"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="42"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="142"/>
       <c r="L146" s="36"/>
       <c r="M146" s="36"/>
-      <c r="N146" s="37"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="37"/>
-      <c r="Q146" s="43"/>
+      <c r="N146" s="36"/>
+      <c r="O146" s="36"/>
+      <c r="P146" s="36"/>
+      <c r="Q146" s="40"/>
       <c r="R146" s="11"/>
       <c r="S146" s="11"/>
       <c r="T146" s="11"/>
     </row>
-    <row r="147" spans="1:20" ht="16.5" thickBot="1">
+    <row r="147" spans="1:20" ht="13.5" thickBot="1">
       <c r="A147" s="15" t="s">
         <v>244</v>
       </c>
@@ -8651,38 +8900,38 @@
       </c>
       <c r="H147" s="29"/>
       <c r="I147" s="31"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="49"/>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="51"/>
-      <c r="O147" s="51"/>
-      <c r="P147" s="51"/>
-      <c r="Q147" s="52"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="144"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="47"/>
       <c r="R147" s="11"/>
       <c r="S147" s="11"/>
       <c r="T147" s="11"/>
     </row>
     <row r="148" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="76" t="s">
+      <c r="A148" s="120" t="s">
         <v>326</v>
       </c>
-      <c r="B148" s="77"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="77"/>
-      <c r="I148" s="77"/>
-      <c r="J148" s="77"/>
-      <c r="K148" s="77"/>
-      <c r="L148" s="77"/>
-      <c r="M148" s="77"/>
-      <c r="N148" s="77"/>
-      <c r="O148" s="77"/>
-      <c r="P148" s="77"/>
-      <c r="Q148" s="78"/>
+      <c r="B148" s="121"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="121"/>
+      <c r="H148" s="121"/>
+      <c r="I148" s="121"/>
+      <c r="J148" s="121"/>
+      <c r="K148" s="121"/>
+      <c r="L148" s="121"/>
+      <c r="M148" s="121"/>
+      <c r="N148" s="121"/>
+      <c r="O148" s="121"/>
+      <c r="P148" s="121"/>
+      <c r="Q148" s="127"/>
       <c r="R148" s="11"/>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
@@ -8713,14 +8962,14 @@
         <v>246</v>
       </c>
       <c r="I149" s="30"/>
-      <c r="J149" s="33"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55"/>
-      <c r="P149" s="55"/>
-      <c r="Q149" s="56"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="145"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="51"/>
       <c r="R149" s="11"/>
       <c r="S149" s="11"/>
       <c r="T149" s="11"/>
@@ -8751,19 +9000,19 @@
         <v>246</v>
       </c>
       <c r="I150" s="26"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="42"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="142"/>
       <c r="L150" s="36"/>
       <c r="M150" s="36"/>
-      <c r="N150" s="37"/>
-      <c r="O150" s="37"/>
-      <c r="P150" s="37"/>
-      <c r="Q150" s="43"/>
+      <c r="N150" s="36"/>
+      <c r="O150" s="36"/>
+      <c r="P150" s="36"/>
+      <c r="Q150" s="40"/>
       <c r="R150" s="11"/>
       <c r="S150" s="11"/>
       <c r="T150" s="11"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" ht="12.75">
       <c r="A151" s="7" t="s">
         <v>248</v>
       </c>
@@ -8787,19 +9036,19 @@
       </c>
       <c r="H151" s="24"/>
       <c r="I151" s="26"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="42"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="142"/>
       <c r="L151" s="36"/>
       <c r="M151" s="36"/>
-      <c r="N151" s="37"/>
-      <c r="O151" s="37"/>
-      <c r="P151" s="37"/>
-      <c r="Q151" s="43"/>
+      <c r="N151" s="36"/>
+      <c r="O151" s="36"/>
+      <c r="P151" s="36"/>
+      <c r="Q151" s="40"/>
       <c r="R151" s="11"/>
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" ht="12.75">
       <c r="A152" s="7" t="s">
         <v>249</v>
       </c>
@@ -8823,19 +9072,19 @@
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="26"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="42"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="142"/>
       <c r="L152" s="36"/>
       <c r="M152" s="36"/>
-      <c r="N152" s="37"/>
-      <c r="O152" s="37"/>
-      <c r="P152" s="37"/>
-      <c r="Q152" s="43"/>
+      <c r="N152" s="36"/>
+      <c r="O152" s="36"/>
+      <c r="P152" s="36"/>
+      <c r="Q152" s="40"/>
       <c r="R152" s="11"/>
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" ht="12.75">
       <c r="A153" s="7" t="s">
         <v>250</v>
       </c>
@@ -8859,19 +9108,19 @@
       </c>
       <c r="H153" s="24"/>
       <c r="I153" s="26"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="42"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="142"/>
       <c r="L153" s="36"/>
       <c r="M153" s="36"/>
-      <c r="N153" s="37"/>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="43"/>
+      <c r="N153" s="36"/>
+      <c r="O153" s="36"/>
+      <c r="P153" s="36"/>
+      <c r="Q153" s="40"/>
       <c r="R153" s="11"/>
       <c r="S153" s="11"/>
       <c r="T153" s="11"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" ht="12.75">
       <c r="A154" s="7" t="s">
         <v>251</v>
       </c>
@@ -8895,19 +9144,19 @@
       </c>
       <c r="H154" s="24"/>
       <c r="I154" s="26"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="42"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="142"/>
       <c r="L154" s="36"/>
       <c r="M154" s="36"/>
-      <c r="N154" s="37"/>
-      <c r="O154" s="37"/>
-      <c r="P154" s="37"/>
-      <c r="Q154" s="43"/>
+      <c r="N154" s="36"/>
+      <c r="O154" s="36"/>
+      <c r="P154" s="36"/>
+      <c r="Q154" s="40"/>
       <c r="R154" s="11"/>
       <c r="S154" s="11"/>
       <c r="T154" s="11"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" ht="12.75">
       <c r="A155" s="7" t="s">
         <v>252</v>
       </c>
@@ -8931,19 +9180,19 @@
       </c>
       <c r="H155" s="24"/>
       <c r="I155" s="26"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="42"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="142"/>
       <c r="L155" s="36"/>
       <c r="M155" s="36"/>
-      <c r="N155" s="37"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="37"/>
-      <c r="Q155" s="43"/>
+      <c r="N155" s="36"/>
+      <c r="O155" s="36"/>
+      <c r="P155" s="36"/>
+      <c r="Q155" s="40"/>
       <c r="R155" s="11"/>
       <c r="S155" s="11"/>
       <c r="T155" s="11"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" ht="12.75">
       <c r="A156" s="7" t="s">
         <v>253</v>
       </c>
@@ -8967,14 +9216,14 @@
       </c>
       <c r="H156" s="24"/>
       <c r="I156" s="26"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="42"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="142"/>
       <c r="L156" s="36"/>
       <c r="M156" s="36"/>
-      <c r="N156" s="37"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37"/>
-      <c r="Q156" s="43"/>
+      <c r="N156" s="36"/>
+      <c r="O156" s="36"/>
+      <c r="P156" s="36"/>
+      <c r="Q156" s="40"/>
       <c r="R156" s="11"/>
       <c r="S156" s="11"/>
       <c r="T156" s="11"/>
@@ -9005,19 +9254,19 @@
         <v>256</v>
       </c>
       <c r="I157" s="26"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="42"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="142"/>
       <c r="L157" s="36"/>
       <c r="M157" s="36"/>
-      <c r="N157" s="37"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37"/>
-      <c r="Q157" s="43"/>
+      <c r="N157" s="36"/>
+      <c r="O157" s="36"/>
+      <c r="P157" s="36"/>
+      <c r="Q157" s="40"/>
       <c r="R157" s="11"/>
       <c r="S157" s="11"/>
       <c r="T157" s="11"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" ht="12.75">
       <c r="A158" s="7" t="s">
         <v>257</v>
       </c>
@@ -9041,19 +9290,19 @@
       </c>
       <c r="H158" s="24"/>
       <c r="I158" s="26"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="42"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="142"/>
       <c r="L158" s="36"/>
       <c r="M158" s="36"/>
-      <c r="N158" s="37"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="43"/>
+      <c r="N158" s="36"/>
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="40"/>
       <c r="R158" s="11"/>
       <c r="S158" s="11"/>
       <c r="T158" s="11"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" ht="12.75">
       <c r="A159" s="7" t="s">
         <v>259</v>
       </c>
@@ -9077,19 +9326,19 @@
       </c>
       <c r="H159" s="24"/>
       <c r="I159" s="26"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="42"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="142"/>
       <c r="L159" s="36"/>
       <c r="M159" s="36"/>
-      <c r="N159" s="37"/>
-      <c r="O159" s="37"/>
-      <c r="P159" s="37"/>
-      <c r="Q159" s="43"/>
+      <c r="N159" s="36"/>
+      <c r="O159" s="36"/>
+      <c r="P159" s="36"/>
+      <c r="Q159" s="40"/>
       <c r="R159" s="11"/>
       <c r="S159" s="11"/>
       <c r="T159" s="11"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" ht="12.75">
       <c r="A160" s="7" t="s">
         <v>261</v>
       </c>
@@ -9113,19 +9362,19 @@
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="26"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="42"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="142"/>
       <c r="L160" s="36"/>
       <c r="M160" s="36"/>
-      <c r="N160" s="37"/>
-      <c r="O160" s="37"/>
-      <c r="P160" s="37"/>
-      <c r="Q160" s="43"/>
+      <c r="N160" s="36"/>
+      <c r="O160" s="36"/>
+      <c r="P160" s="36"/>
+      <c r="Q160" s="40"/>
       <c r="R160" s="11"/>
       <c r="S160" s="11"/>
       <c r="T160" s="11"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" ht="12.75">
       <c r="A161" s="7" t="s">
         <v>263</v>
       </c>
@@ -9149,14 +9398,14 @@
       </c>
       <c r="H161" s="24"/>
       <c r="I161" s="26"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="42"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="142"/>
       <c r="L161" s="36"/>
       <c r="M161" s="36"/>
-      <c r="N161" s="37"/>
-      <c r="O161" s="37"/>
-      <c r="P161" s="37"/>
-      <c r="Q161" s="43"/>
+      <c r="N161" s="36"/>
+      <c r="O161" s="36"/>
+      <c r="P161" s="36"/>
+      <c r="Q161" s="40"/>
       <c r="R161" s="11"/>
       <c r="S161" s="11"/>
       <c r="T161" s="11"/>
@@ -9187,14 +9436,14 @@
         <v>265</v>
       </c>
       <c r="I162" s="26"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="42"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="142"/>
       <c r="L162" s="36"/>
       <c r="M162" s="36"/>
-      <c r="N162" s="37"/>
-      <c r="O162" s="37"/>
-      <c r="P162" s="37"/>
-      <c r="Q162" s="43"/>
+      <c r="N162" s="36"/>
+      <c r="O162" s="36"/>
+      <c r="P162" s="36"/>
+      <c r="Q162" s="40"/>
       <c r="R162" s="11"/>
       <c r="S162" s="11"/>
       <c r="T162" s="11"/>
@@ -9225,14 +9474,14 @@
         <v>267</v>
       </c>
       <c r="I163" s="26"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="42"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="142"/>
       <c r="L163" s="36"/>
       <c r="M163" s="36"/>
-      <c r="N163" s="37"/>
-      <c r="O163" s="37"/>
-      <c r="P163" s="37"/>
-      <c r="Q163" s="43"/>
+      <c r="N163" s="36"/>
+      <c r="O163" s="36"/>
+      <c r="P163" s="36"/>
+      <c r="Q163" s="40"/>
       <c r="R163" s="11"/>
       <c r="S163" s="11"/>
       <c r="T163" s="11"/>
@@ -9263,19 +9512,19 @@
         <v>267</v>
       </c>
       <c r="I164" s="26"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="42"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="142"/>
       <c r="L164" s="36"/>
       <c r="M164" s="36"/>
-      <c r="N164" s="37"/>
-      <c r="O164" s="37"/>
-      <c r="P164" s="37"/>
-      <c r="Q164" s="43"/>
+      <c r="N164" s="36"/>
+      <c r="O164" s="36"/>
+      <c r="P164" s="36"/>
+      <c r="Q164" s="40"/>
       <c r="R164" s="11"/>
       <c r="S164" s="11"/>
       <c r="T164" s="11"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" ht="12.75">
       <c r="A165" s="7" t="s">
         <v>269</v>
       </c>
@@ -9299,19 +9548,19 @@
       </c>
       <c r="H165" s="24"/>
       <c r="I165" s="26"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="42"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="142"/>
       <c r="L165" s="36"/>
       <c r="M165" s="36"/>
-      <c r="N165" s="37"/>
-      <c r="O165" s="37"/>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="43"/>
+      <c r="N165" s="36"/>
+      <c r="O165" s="36"/>
+      <c r="P165" s="36"/>
+      <c r="Q165" s="40"/>
       <c r="R165" s="11"/>
       <c r="S165" s="11"/>
       <c r="T165" s="11"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" ht="12.75">
       <c r="A166" s="7" t="s">
         <v>270</v>
       </c>
@@ -9335,19 +9584,19 @@
       </c>
       <c r="H166" s="24"/>
       <c r="I166" s="26"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="42"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="142"/>
       <c r="L166" s="36"/>
       <c r="M166" s="36"/>
-      <c r="N166" s="37"/>
-      <c r="O166" s="37"/>
-      <c r="P166" s="37"/>
-      <c r="Q166" s="43"/>
+      <c r="N166" s="36"/>
+      <c r="O166" s="36"/>
+      <c r="P166" s="36"/>
+      <c r="Q166" s="40"/>
       <c r="R166" s="11"/>
       <c r="S166" s="11"/>
       <c r="T166" s="11"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" ht="12.75">
       <c r="A167" s="7" t="s">
         <v>271</v>
       </c>
@@ -9371,19 +9620,19 @@
       </c>
       <c r="H167" s="24"/>
       <c r="I167" s="26"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="42"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="142"/>
       <c r="L167" s="36"/>
       <c r="M167" s="36"/>
-      <c r="N167" s="37"/>
-      <c r="O167" s="37"/>
-      <c r="P167" s="37"/>
-      <c r="Q167" s="43"/>
+      <c r="N167" s="36"/>
+      <c r="O167" s="36"/>
+      <c r="P167" s="36"/>
+      <c r="Q167" s="40"/>
       <c r="R167" s="11"/>
       <c r="S167" s="11"/>
       <c r="T167" s="11"/>
     </row>
-    <row r="168" spans="1:20" ht="16.5" thickBot="1">
+    <row r="168" spans="1:20" ht="13.5" thickBot="1">
       <c r="A168" s="15" t="s">
         <v>272</v>
       </c>
@@ -9407,38 +9656,38 @@
       </c>
       <c r="H168" s="29"/>
       <c r="I168" s="31"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="49"/>
-      <c r="L168" s="50"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="51"/>
-      <c r="O168" s="51"/>
-      <c r="P168" s="51"/>
-      <c r="Q168" s="52"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="144"/>
+      <c r="L168" s="46"/>
+      <c r="M168" s="46"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="46"/>
+      <c r="P168" s="46"/>
+      <c r="Q168" s="47"/>
       <c r="R168" s="11"/>
       <c r="S168" s="11"/>
       <c r="T168" s="11"/>
     </row>
     <row r="169" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A169" s="76" t="s">
+      <c r="A169" s="120" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="77"/>
-      <c r="I169" s="77"/>
-      <c r="J169" s="77"/>
-      <c r="K169" s="77"/>
-      <c r="L169" s="77"/>
-      <c r="M169" s="77"/>
-      <c r="N169" s="77"/>
-      <c r="O169" s="77"/>
-      <c r="P169" s="77"/>
-      <c r="Q169" s="78"/>
+      <c r="B169" s="121"/>
+      <c r="C169" s="121"/>
+      <c r="D169" s="121"/>
+      <c r="E169" s="121"/>
+      <c r="F169" s="121"/>
+      <c r="G169" s="121"/>
+      <c r="H169" s="121"/>
+      <c r="I169" s="121"/>
+      <c r="J169" s="121"/>
+      <c r="K169" s="121"/>
+      <c r="L169" s="121"/>
+      <c r="M169" s="121"/>
+      <c r="N169" s="121"/>
+      <c r="O169" s="121"/>
+      <c r="P169" s="121"/>
+      <c r="Q169" s="127"/>
       <c r="R169" s="11"/>
       <c r="S169" s="11"/>
       <c r="T169" s="11"/>
@@ -9467,19 +9716,19 @@
         <v>275</v>
       </c>
       <c r="I170" s="30"/>
-      <c r="J170" s="33"/>
-      <c r="K170" s="53"/>
-      <c r="L170" s="54"/>
-      <c r="M170" s="54"/>
-      <c r="N170" s="55"/>
-      <c r="O170" s="55"/>
-      <c r="P170" s="55"/>
-      <c r="Q170" s="56"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="145"/>
+      <c r="L170" s="50"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="50"/>
+      <c r="P170" s="50"/>
+      <c r="Q170" s="51"/>
       <c r="R170" s="11"/>
       <c r="S170" s="11"/>
       <c r="T170" s="11"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" ht="12.75">
       <c r="A171" s="7" t="s">
         <v>276</v>
       </c>
@@ -9501,19 +9750,19 @@
       </c>
       <c r="H171" s="24"/>
       <c r="I171" s="26"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="42"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="142"/>
       <c r="L171" s="36"/>
       <c r="M171" s="36"/>
-      <c r="N171" s="37"/>
-      <c r="O171" s="37"/>
-      <c r="P171" s="37"/>
-      <c r="Q171" s="43"/>
+      <c r="N171" s="36"/>
+      <c r="O171" s="36"/>
+      <c r="P171" s="36"/>
+      <c r="Q171" s="40"/>
       <c r="R171" s="11"/>
       <c r="S171" s="11"/>
       <c r="T171" s="11"/>
     </row>
-    <row r="172" spans="1:20" ht="16.5" thickBot="1">
+    <row r="172" spans="1:20" ht="13.5" thickBot="1">
       <c r="A172" s="15" t="s">
         <v>277</v>
       </c>
@@ -9535,38 +9784,38 @@
       </c>
       <c r="H172" s="29"/>
       <c r="I172" s="31"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="49"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="51"/>
-      <c r="O172" s="51"/>
-      <c r="P172" s="51"/>
-      <c r="Q172" s="52"/>
+      <c r="J172" s="43"/>
+      <c r="K172" s="144"/>
+      <c r="L172" s="46"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+      <c r="P172" s="46"/>
+      <c r="Q172" s="47"/>
       <c r="R172" s="11"/>
       <c r="S172" s="11"/>
       <c r="T172" s="11"/>
     </row>
     <row r="173" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="120" t="s">
         <v>329</v>
       </c>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="78"/>
+      <c r="B173" s="121"/>
+      <c r="C173" s="121"/>
+      <c r="D173" s="121"/>
+      <c r="E173" s="121"/>
+      <c r="F173" s="121"/>
+      <c r="G173" s="121"/>
+      <c r="H173" s="121"/>
+      <c r="I173" s="121"/>
+      <c r="J173" s="121"/>
+      <c r="K173" s="121"/>
+      <c r="L173" s="121"/>
+      <c r="M173" s="121"/>
+      <c r="N173" s="121"/>
+      <c r="O173" s="121"/>
+      <c r="P173" s="121"/>
+      <c r="Q173" s="127"/>
       <c r="R173" s="11"/>
       <c r="S173" s="11"/>
       <c r="T173" s="11"/>
@@ -9595,19 +9844,19 @@
         <v>279</v>
       </c>
       <c r="I174" s="30"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="53"/>
-      <c r="L174" s="54"/>
-      <c r="M174" s="54"/>
-      <c r="N174" s="55"/>
-      <c r="O174" s="55"/>
-      <c r="P174" s="55"/>
-      <c r="Q174" s="56"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="145"/>
+      <c r="L174" s="50"/>
+      <c r="M174" s="50"/>
+      <c r="N174" s="50"/>
+      <c r="O174" s="50"/>
+      <c r="P174" s="50"/>
+      <c r="Q174" s="51"/>
       <c r="R174" s="11"/>
       <c r="S174" s="11"/>
       <c r="T174" s="11"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" ht="12.75">
       <c r="A175" s="7" t="s">
         <v>280</v>
       </c>
@@ -9629,19 +9878,19 @@
       </c>
       <c r="H175" s="24"/>
       <c r="I175" s="26"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="42"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="142"/>
       <c r="L175" s="36"/>
       <c r="M175" s="36"/>
-      <c r="N175" s="37"/>
-      <c r="O175" s="37"/>
-      <c r="P175" s="37"/>
-      <c r="Q175" s="43"/>
+      <c r="N175" s="36"/>
+      <c r="O175" s="36"/>
+      <c r="P175" s="36"/>
+      <c r="Q175" s="40"/>
       <c r="R175" s="11"/>
       <c r="S175" s="11"/>
       <c r="T175" s="11"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" ht="12.75">
       <c r="A176" s="7" t="s">
         <v>281</v>
       </c>
@@ -9663,14 +9912,14 @@
       </c>
       <c r="H176" s="24"/>
       <c r="I176" s="26"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="42"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="142"/>
       <c r="L176" s="36"/>
       <c r="M176" s="36"/>
-      <c r="N176" s="37"/>
-      <c r="O176" s="37"/>
-      <c r="P176" s="37"/>
-      <c r="Q176" s="43"/>
+      <c r="N176" s="36"/>
+      <c r="O176" s="36"/>
+      <c r="P176" s="36"/>
+      <c r="Q176" s="40"/>
       <c r="R176" s="11"/>
       <c r="S176" s="11"/>
       <c r="T176" s="11"/>
@@ -9699,19 +9948,19 @@
         <v>279</v>
       </c>
       <c r="I177" s="26"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="42"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="142"/>
       <c r="L177" s="36"/>
       <c r="M177" s="36"/>
-      <c r="N177" s="37"/>
-      <c r="O177" s="37"/>
-      <c r="P177" s="37"/>
-      <c r="Q177" s="43"/>
+      <c r="N177" s="36"/>
+      <c r="O177" s="36"/>
+      <c r="P177" s="36"/>
+      <c r="Q177" s="40"/>
       <c r="R177" s="11"/>
       <c r="S177" s="11"/>
       <c r="T177" s="11"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" ht="12.75">
       <c r="A178" s="7" t="s">
         <v>283</v>
       </c>
@@ -9733,19 +9982,19 @@
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="26"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="42"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="142"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36"/>
-      <c r="N178" s="37"/>
-      <c r="O178" s="37"/>
-      <c r="P178" s="37"/>
-      <c r="Q178" s="43"/>
+      <c r="N178" s="36"/>
+      <c r="O178" s="36"/>
+      <c r="P178" s="36"/>
+      <c r="Q178" s="40"/>
       <c r="R178" s="11"/>
       <c r="S178" s="11"/>
       <c r="T178" s="11"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" ht="12.75">
       <c r="A179" s="7" t="s">
         <v>284</v>
       </c>
@@ -9767,14 +10016,14 @@
       </c>
       <c r="H179" s="24"/>
       <c r="I179" s="26"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="42"/>
+      <c r="J179" s="33"/>
+      <c r="K179" s="142"/>
       <c r="L179" s="36"/>
       <c r="M179" s="36"/>
-      <c r="N179" s="37"/>
-      <c r="O179" s="37"/>
-      <c r="P179" s="37"/>
-      <c r="Q179" s="43"/>
+      <c r="N179" s="36"/>
+      <c r="O179" s="36"/>
+      <c r="P179" s="36"/>
+      <c r="Q179" s="40"/>
       <c r="R179" s="11"/>
       <c r="S179" s="11"/>
       <c r="T179" s="11"/>
@@ -9803,14 +10052,14 @@
         <v>286</v>
       </c>
       <c r="I180" s="26"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="42"/>
+      <c r="J180" s="33"/>
+      <c r="K180" s="142"/>
       <c r="L180" s="36"/>
       <c r="M180" s="36"/>
-      <c r="N180" s="37"/>
-      <c r="O180" s="37"/>
-      <c r="P180" s="37"/>
-      <c r="Q180" s="43"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="36"/>
+      <c r="P180" s="36"/>
+      <c r="Q180" s="40"/>
       <c r="R180" s="11"/>
       <c r="S180" s="11"/>
       <c r="T180" s="11"/>
@@ -9839,14 +10088,14 @@
         <v>279</v>
       </c>
       <c r="I181" s="26"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="42"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="142"/>
       <c r="L181" s="36"/>
       <c r="M181" s="36"/>
-      <c r="N181" s="37"/>
-      <c r="O181" s="37"/>
-      <c r="P181" s="37"/>
-      <c r="Q181" s="43"/>
+      <c r="N181" s="36"/>
+      <c r="O181" s="36"/>
+      <c r="P181" s="36"/>
+      <c r="Q181" s="40"/>
       <c r="R181" s="11"/>
       <c r="S181" s="11"/>
       <c r="T181" s="11"/>
@@ -9875,19 +10124,19 @@
         <v>289</v>
       </c>
       <c r="I182" s="26"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="42"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="142"/>
       <c r="L182" s="36"/>
       <c r="M182" s="36"/>
-      <c r="N182" s="37"/>
-      <c r="O182" s="37"/>
-      <c r="P182" s="37"/>
-      <c r="Q182" s="43"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="36"/>
+      <c r="P182" s="36"/>
+      <c r="Q182" s="40"/>
       <c r="R182" s="11"/>
       <c r="S182" s="11"/>
       <c r="T182" s="11"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" ht="12.75">
       <c r="A183" s="7" t="s">
         <v>290</v>
       </c>
@@ -9909,19 +10158,19 @@
       </c>
       <c r="H183" s="24"/>
       <c r="I183" s="26"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="42"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="142"/>
       <c r="L183" s="36"/>
       <c r="M183" s="36"/>
-      <c r="N183" s="37"/>
-      <c r="O183" s="37"/>
-      <c r="P183" s="37"/>
-      <c r="Q183" s="43"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="36"/>
+      <c r="P183" s="36"/>
+      <c r="Q183" s="40"/>
       <c r="R183" s="11"/>
       <c r="S183" s="11"/>
       <c r="T183" s="11"/>
     </row>
-    <row r="184" spans="1:20" ht="16.5" thickBot="1">
+    <row r="184" spans="1:20" ht="13.5" thickBot="1">
       <c r="A184" s="15" t="s">
         <v>291</v>
       </c>
@@ -9943,38 +10192,38 @@
       </c>
       <c r="H184" s="29"/>
       <c r="I184" s="31"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="49"/>
-      <c r="L184" s="50"/>
-      <c r="M184" s="50"/>
-      <c r="N184" s="51"/>
-      <c r="O184" s="51"/>
-      <c r="P184" s="51"/>
-      <c r="Q184" s="52"/>
+      <c r="J184" s="43"/>
+      <c r="K184" s="144"/>
+      <c r="L184" s="46"/>
+      <c r="M184" s="46"/>
+      <c r="N184" s="46"/>
+      <c r="O184" s="46"/>
+      <c r="P184" s="46"/>
+      <c r="Q184" s="47"/>
       <c r="R184" s="11"/>
       <c r="S184" s="11"/>
       <c r="T184" s="11"/>
     </row>
     <row r="185" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A185" s="76" t="s">
+      <c r="A185" s="120" t="s">
         <v>357</v>
       </c>
-      <c r="B185" s="77"/>
-      <c r="C185" s="77"/>
-      <c r="D185" s="77"/>
-      <c r="E185" s="77"/>
-      <c r="F185" s="77"/>
-      <c r="G185" s="77"/>
-      <c r="H185" s="77"/>
-      <c r="I185" s="77"/>
-      <c r="J185" s="77"/>
-      <c r="K185" s="77"/>
-      <c r="L185" s="77"/>
-      <c r="M185" s="77"/>
-      <c r="N185" s="77"/>
-      <c r="O185" s="77"/>
-      <c r="P185" s="77"/>
-      <c r="Q185" s="78"/>
+      <c r="B185" s="121"/>
+      <c r="C185" s="121"/>
+      <c r="D185" s="121"/>
+      <c r="E185" s="121"/>
+      <c r="F185" s="121"/>
+      <c r="G185" s="121"/>
+      <c r="H185" s="121"/>
+      <c r="I185" s="121"/>
+      <c r="J185" s="121"/>
+      <c r="K185" s="121"/>
+      <c r="L185" s="121"/>
+      <c r="M185" s="121"/>
+      <c r="N185" s="121"/>
+      <c r="O185" s="121"/>
+      <c r="P185" s="121"/>
+      <c r="Q185" s="127"/>
       <c r="R185" s="11"/>
       <c r="S185" s="11"/>
       <c r="T185" s="11"/>
@@ -10003,14 +10252,14 @@
         <v>294</v>
       </c>
       <c r="I186" s="30"/>
-      <c r="J186" s="33"/>
-      <c r="K186" s="53"/>
-      <c r="L186" s="54"/>
-      <c r="M186" s="54"/>
-      <c r="N186" s="55"/>
-      <c r="O186" s="55"/>
-      <c r="P186" s="55"/>
-      <c r="Q186" s="56"/>
+      <c r="J186" s="32"/>
+      <c r="K186" s="145"/>
+      <c r="L186" s="50"/>
+      <c r="M186" s="50"/>
+      <c r="N186" s="50"/>
+      <c r="O186" s="50"/>
+      <c r="P186" s="50"/>
+      <c r="Q186" s="51"/>
       <c r="R186" s="11"/>
       <c r="S186" s="11"/>
       <c r="T186" s="11"/>
@@ -10039,14 +10288,14 @@
         <v>296</v>
       </c>
       <c r="I187" s="26"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="42"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="142"/>
       <c r="L187" s="36"/>
       <c r="M187" s="36"/>
-      <c r="N187" s="37"/>
-      <c r="O187" s="37"/>
-      <c r="P187" s="37"/>
-      <c r="Q187" s="43"/>
+      <c r="N187" s="36"/>
+      <c r="O187" s="36"/>
+      <c r="P187" s="36"/>
+      <c r="Q187" s="40"/>
       <c r="R187" s="11"/>
       <c r="S187" s="11"/>
       <c r="T187" s="11"/>
@@ -10075,43 +10324,43 @@
         <v>298</v>
       </c>
       <c r="I188" s="31"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="49"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="51"/>
-      <c r="O188" s="51"/>
-      <c r="P188" s="51"/>
-      <c r="Q188" s="52"/>
+      <c r="J188" s="43"/>
+      <c r="K188" s="144"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="O188" s="46"/>
+      <c r="P188" s="46"/>
+      <c r="Q188" s="47"/>
       <c r="R188" s="11"/>
       <c r="S188" s="11"/>
       <c r="T188" s="11"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" thickBot="1">
-      <c r="A189" s="76" t="s">
+      <c r="A189" s="120" t="s">
         <v>358</v>
       </c>
-      <c r="B189" s="77"/>
-      <c r="C189" s="77"/>
-      <c r="D189" s="77"/>
-      <c r="E189" s="77"/>
-      <c r="F189" s="77"/>
-      <c r="G189" s="77"/>
-      <c r="H189" s="77"/>
-      <c r="I189" s="77"/>
-      <c r="J189" s="77"/>
-      <c r="K189" s="77"/>
-      <c r="L189" s="77"/>
-      <c r="M189" s="77"/>
-      <c r="N189" s="77"/>
-      <c r="O189" s="77"/>
-      <c r="P189" s="77"/>
-      <c r="Q189" s="78"/>
+      <c r="B189" s="121"/>
+      <c r="C189" s="121"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="121"/>
+      <c r="H189" s="121"/>
+      <c r="I189" s="121"/>
+      <c r="J189" s="121"/>
+      <c r="K189" s="121"/>
+      <c r="L189" s="121"/>
+      <c r="M189" s="121"/>
+      <c r="N189" s="121"/>
+      <c r="O189" s="121"/>
+      <c r="P189" s="121"/>
+      <c r="Q189" s="127"/>
       <c r="R189" s="11"/>
       <c r="S189" s="11"/>
       <c r="T189" s="11"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" ht="12.75">
       <c r="A190" s="13" t="s">
         <v>299</v>
       </c>
@@ -10133,14 +10382,14 @@
       </c>
       <c r="H190" s="23"/>
       <c r="I190" s="30"/>
-      <c r="J190" s="33"/>
-      <c r="K190" s="53"/>
-      <c r="L190" s="54"/>
-      <c r="M190" s="54"/>
-      <c r="N190" s="55"/>
-      <c r="O190" s="55"/>
-      <c r="P190" s="55"/>
-      <c r="Q190" s="56"/>
+      <c r="J190" s="32"/>
+      <c r="K190" s="145"/>
+      <c r="L190" s="50"/>
+      <c r="M190" s="50"/>
+      <c r="N190" s="50"/>
+      <c r="O190" s="50"/>
+      <c r="P190" s="50"/>
+      <c r="Q190" s="51"/>
       <c r="R190" s="11"/>
       <c r="S190" s="11"/>
       <c r="T190" s="11"/>
@@ -10169,14 +10418,14 @@
         <v>301</v>
       </c>
       <c r="I191" s="26"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="42"/>
+      <c r="J191" s="33"/>
+      <c r="K191" s="142"/>
       <c r="L191" s="36"/>
       <c r="M191" s="36"/>
-      <c r="N191" s="37"/>
-      <c r="O191" s="37"/>
-      <c r="P191" s="37"/>
-      <c r="Q191" s="43"/>
+      <c r="N191" s="36"/>
+      <c r="O191" s="36"/>
+      <c r="P191" s="36"/>
+      <c r="Q191" s="40"/>
       <c r="R191" s="11"/>
       <c r="S191" s="11"/>
       <c r="T191" s="11"/>
@@ -10205,19 +10454,19 @@
         <v>301</v>
       </c>
       <c r="I192" s="26"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="42"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="142"/>
       <c r="L192" s="36"/>
       <c r="M192" s="36"/>
-      <c r="N192" s="37"/>
-      <c r="O192" s="37"/>
-      <c r="P192" s="37"/>
-      <c r="Q192" s="43"/>
+      <c r="N192" s="36"/>
+      <c r="O192" s="36"/>
+      <c r="P192" s="36"/>
+      <c r="Q192" s="40"/>
       <c r="R192" s="11"/>
       <c r="S192" s="11"/>
       <c r="T192" s="11"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" ht="12.75">
       <c r="A193" s="7" t="s">
         <v>303</v>
       </c>
@@ -10239,14 +10488,14 @@
       </c>
       <c r="H193" s="24"/>
       <c r="I193" s="26"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="42"/>
+      <c r="J193" s="33"/>
+      <c r="K193" s="142"/>
       <c r="L193" s="36"/>
       <c r="M193" s="36"/>
-      <c r="N193" s="37"/>
-      <c r="O193" s="37"/>
-      <c r="P193" s="37"/>
-      <c r="Q193" s="43"/>
+      <c r="N193" s="36"/>
+      <c r="O193" s="36"/>
+      <c r="P193" s="36"/>
+      <c r="Q193" s="40"/>
       <c r="R193" s="11"/>
       <c r="S193" s="11"/>
       <c r="T193" s="11"/>
@@ -10275,14 +10524,14 @@
         <v>306</v>
       </c>
       <c r="I194" s="26"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="42"/>
+      <c r="J194" s="33"/>
+      <c r="K194" s="142"/>
       <c r="L194" s="36"/>
       <c r="M194" s="36"/>
-      <c r="N194" s="37"/>
-      <c r="O194" s="37"/>
-      <c r="P194" s="37"/>
-      <c r="Q194" s="43"/>
+      <c r="N194" s="36"/>
+      <c r="O194" s="36"/>
+      <c r="P194" s="36"/>
+      <c r="Q194" s="40"/>
       <c r="R194" s="11"/>
       <c r="S194" s="11"/>
       <c r="T194" s="11"/>
@@ -10311,14 +10560,14 @@
         <v>306</v>
       </c>
       <c r="I195" s="26"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="42"/>
+      <c r="J195" s="33"/>
+      <c r="K195" s="142"/>
       <c r="L195" s="36"/>
       <c r="M195" s="36"/>
-      <c r="N195" s="37"/>
-      <c r="O195" s="37"/>
-      <c r="P195" s="37"/>
-      <c r="Q195" s="43"/>
+      <c r="N195" s="36"/>
+      <c r="O195" s="36"/>
+      <c r="P195" s="36"/>
+      <c r="Q195" s="40"/>
       <c r="R195" s="11"/>
       <c r="S195" s="11"/>
       <c r="T195" s="11"/>
@@ -10347,14 +10596,14 @@
         <v>306</v>
       </c>
       <c r="I196" s="26"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="42"/>
+      <c r="J196" s="33"/>
+      <c r="K196" s="142"/>
       <c r="L196" s="36"/>
       <c r="M196" s="36"/>
-      <c r="N196" s="37"/>
-      <c r="O196" s="37"/>
-      <c r="P196" s="37"/>
-      <c r="Q196" s="43"/>
+      <c r="N196" s="36"/>
+      <c r="O196" s="36"/>
+      <c r="P196" s="36"/>
+      <c r="Q196" s="40"/>
       <c r="R196" s="11"/>
       <c r="S196" s="11"/>
       <c r="T196" s="11"/>
@@ -10383,14 +10632,14 @@
         <v>306</v>
       </c>
       <c r="I197" s="26"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="42"/>
+      <c r="J197" s="33"/>
+      <c r="K197" s="142"/>
       <c r="L197" s="36"/>
       <c r="M197" s="36"/>
-      <c r="N197" s="37"/>
-      <c r="O197" s="37"/>
-      <c r="P197" s="37"/>
-      <c r="Q197" s="43"/>
+      <c r="N197" s="36"/>
+      <c r="O197" s="36"/>
+      <c r="P197" s="36"/>
+      <c r="Q197" s="40"/>
       <c r="R197" s="11"/>
       <c r="S197" s="11"/>
       <c r="T197" s="11"/>
@@ -10419,14 +10668,14 @@
         <v>306</v>
       </c>
       <c r="I198" s="26"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="42"/>
+      <c r="J198" s="33"/>
+      <c r="K198" s="142"/>
       <c r="L198" s="36"/>
       <c r="M198" s="36"/>
-      <c r="N198" s="37"/>
-      <c r="O198" s="37"/>
-      <c r="P198" s="37"/>
-      <c r="Q198" s="43"/>
+      <c r="N198" s="36"/>
+      <c r="O198" s="36"/>
+      <c r="P198" s="36"/>
+      <c r="Q198" s="40"/>
       <c r="R198" s="11"/>
       <c r="S198" s="11"/>
       <c r="T198" s="11"/>
@@ -10449,32 +10698,20 @@
         <v>306</v>
       </c>
       <c r="I199" s="27"/>
-      <c r="J199" s="35"/>
-      <c r="K199" s="44"/>
-      <c r="L199" s="45"/>
-      <c r="M199" s="45"/>
-      <c r="N199" s="46"/>
-      <c r="O199" s="46"/>
-      <c r="P199" s="46"/>
-      <c r="Q199" s="47"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="143"/>
+      <c r="L199" s="41"/>
+      <c r="M199" s="41"/>
+      <c r="N199" s="41"/>
+      <c r="O199" s="41"/>
+      <c r="P199" s="41"/>
+      <c r="Q199" s="42"/>
       <c r="R199" s="11"/>
       <c r="S199" s="11"/>
       <c r="T199" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A68:Q68"/>
-    <mergeCell ref="A80:Q80"/>
-    <mergeCell ref="A84:Q84"/>
-    <mergeCell ref="A93:Q93"/>
-    <mergeCell ref="A110:Q110"/>
     <mergeCell ref="A173:Q173"/>
     <mergeCell ref="A185:Q185"/>
     <mergeCell ref="A189:Q189"/>
@@ -10483,6 +10720,18 @@
     <mergeCell ref="A143:Q143"/>
     <mergeCell ref="A148:Q148"/>
     <mergeCell ref="A169:Q169"/>
+    <mergeCell ref="A68:Q68"/>
+    <mergeCell ref="A80:Q80"/>
+    <mergeCell ref="A84:Q84"/>
+    <mergeCell ref="A93:Q93"/>
+    <mergeCell ref="A110:Q110"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10495,7 +10744,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10509,316 +10758,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="138" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="140" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="25.5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="25.5">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="69" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="25.5">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" ht="38.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="68" t="s">
         <v>431</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10831,8 +11080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252DE2CA-368D-46FC-88B0-47085B66ED5F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10844,128 +11093,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="87" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="125" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="96"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" ht="32.25" thickBot="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="114" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="133" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="133" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="133" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="133" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="134" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="135" t="s">
         <v>377</v>
       </c>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="136" t="s">
         <v>378</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="M2" s="141" t="s">
+      <c r="M2" s="136" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="141" t="s">
+      <c r="N2" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="O2" s="142" t="s">
+      <c r="O2" s="137" t="s">
         <v>382</v>
       </c>
-      <c r="P2" s="143" t="s">
+      <c r="P2" s="131" t="s">
         <v>459</v>
       </c>
-      <c r="Q2" s="124" t="s">
+      <c r="Q2" s="130" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="81">
         <v>2.5</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="82">
         <v>2.13</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="82">
         <v>2.25</v>
       </c>
-      <c r="F3" s="103">
+      <c r="F3" s="82">
         <v>2.38</v>
       </c>
-      <c r="G3" s="103">
+      <c r="G3" s="82">
         <v>2.63</v>
       </c>
-      <c r="H3" s="103">
+      <c r="H3" s="82">
         <v>2.75</v>
       </c>
-      <c r="I3" s="119">
+      <c r="I3" s="98">
         <v>2.88</v>
       </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="129"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="65">
         <v>12</v>
       </c>
       <c r="D4" s="6">
@@ -10983,26 +11232,26 @@
       <c r="H4" s="6">
         <v>13.2</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="66">
         <v>13.8</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="130"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="108"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="65">
         <v>1.2</v>
       </c>
       <c r="D5" s="6">
@@ -11020,26 +11269,26 @@
       <c r="H5" s="6">
         <v>1.32</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="66">
         <v>1.38</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="130"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="108"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="83" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="65">
         <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="6">
@@ -11057,26 +11306,26 @@
       <c r="H6" s="6">
         <v>1.27</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="66">
         <v>1.32</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="130"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="83" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="65">
         <v>5</v>
       </c>
       <c r="D7" s="6">
@@ -11094,26 +11343,26 @@
       <c r="H7" s="6">
         <v>5.5</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="66">
         <v>5.75</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="130"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="65">
         <v>5</v>
       </c>
       <c r="D8" s="6">
@@ -11131,26 +11380,26 @@
       <c r="H8" s="6">
         <v>5.5</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="66">
         <v>5.75</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="130"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="108"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="83" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="65">
         <v>3.3</v>
       </c>
       <c r="D9" s="6">
@@ -11168,26 +11417,26 @@
       <c r="H9" s="6">
         <v>3.63</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="66">
         <v>3.8</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="130"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="65">
         <v>3.3</v>
       </c>
       <c r="D10" s="6">
@@ -11205,26 +11454,26 @@
       <c r="H10" s="6">
         <v>3.63</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="66">
         <v>3.8</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="130"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="108"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="65">
         <v>1.8</v>
       </c>
       <c r="D11" s="6">
@@ -11242,26 +11491,26 @@
       <c r="H11" s="6">
         <v>1.98</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="66">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="130"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="108"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="65">
         <v>1.8</v>
       </c>
       <c r="D12" s="6">
@@ -11279,26 +11528,26 @@
       <c r="H12" s="6">
         <v>1.98</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="66">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="130"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="65">
         <v>3</v>
       </c>
       <c r="D13" s="6">
@@ -11316,26 +11565,26 @@
       <c r="H13" s="6">
         <v>3.3</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="66">
         <v>3.45</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="130"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="65" t="s">
         <v>395</v>
       </c>
       <c r="D14" s="6">
@@ -11353,26 +11602,26 @@
       <c r="H14" s="6">
         <v>25500</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="66">
         <v>25500</v>
       </c>
-      <c r="J14" s="110"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="130"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="108"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="65" t="s">
         <v>395</v>
       </c>
       <c r="D15" s="6">
@@ -11390,26 +11639,26 @@
       <c r="H15" s="6">
         <v>25500</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="66">
         <v>25500</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="130"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="108"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="83" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="65" t="s">
         <v>395</v>
       </c>
       <c r="D16" s="6">
@@ -11427,26 +11676,26 @@
       <c r="H16" s="6">
         <v>25500</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="66">
         <v>25500</v>
       </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="130"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="108"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="65" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="6">
@@ -11464,26 +11713,26 @@
       <c r="H17" s="6">
         <v>25500</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="66">
         <v>25500</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="130"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="108"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="85" t="s">
         <v>395</v>
       </c>
       <c r="D18" s="6">
@@ -11501,26 +11750,26 @@
       <c r="H18" s="6">
         <v>25500</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="66">
         <v>25500</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="130"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="108"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="85" t="s">
         <v>395</v>
       </c>
       <c r="D19" s="6">
@@ -11538,26 +11787,26 @@
       <c r="H19" s="6">
         <v>127</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="66">
         <v>127</v>
       </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="130"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="108"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="85" t="s">
         <v>395</v>
       </c>
       <c r="D20" s="6">
@@ -11575,757 +11824,757 @@
       <c r="H20" s="6">
         <v>127</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="66">
         <v>127</v>
       </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="130"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="108"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="85" t="s">
         <v>405</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="107" t="s">
+      <c r="F21" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="86" t="s">
         <v>395</v>
       </c>
-      <c r="I21" s="120" t="s">
+      <c r="I21" s="99" t="s">
         <v>395</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="130"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="108"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="90" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="85">
         <v>2.5</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="86">
         <v>2.14</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="86">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="86">
         <v>2.38</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="86">
         <v>2.64</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="86">
         <v>2.76</v>
       </c>
-      <c r="I22" s="120">
+      <c r="I22" s="99">
         <v>2.88</v>
       </c>
-      <c r="J22" s="110"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="130"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="108"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="85">
         <v>12</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="87">
         <v>10.15</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="87">
         <v>10.78</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="87">
         <v>11.34</v>
       </c>
-      <c r="G23" s="108">
+      <c r="G23" s="87">
         <v>12.6</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="87">
         <v>13.16</v>
       </c>
-      <c r="I23" s="121">
+      <c r="I23" s="100">
         <v>13.79</v>
       </c>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="130"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="108"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="85">
         <v>5</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="87">
         <v>4.26</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="87">
         <v>4.5</v>
       </c>
-      <c r="F24" s="108">
+      <c r="F24" s="87">
         <v>4.74</v>
       </c>
-      <c r="G24" s="108">
+      <c r="G24" s="87">
         <v>5.25</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="87">
         <v>5.49</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="100">
         <v>5.76</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="130"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="108"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="85">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="87">
         <v>0.98</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="87">
         <v>1.04</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="87">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G25" s="108">
+      <c r="G25" s="87">
         <v>1.21</v>
       </c>
-      <c r="H25" s="108">
+      <c r="H25" s="87">
         <v>1.27</v>
       </c>
-      <c r="I25" s="121">
+      <c r="I25" s="100">
         <v>1.32</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="130"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="108"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="92" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="85">
         <v>5</v>
       </c>
-      <c r="D26" s="108">
+      <c r="D26" s="87">
         <v>4.26</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="87">
         <v>4.5</v>
       </c>
-      <c r="F26" s="108">
+      <c r="F26" s="87">
         <v>4.74</v>
       </c>
-      <c r="G26" s="108">
+      <c r="G26" s="87">
         <v>5.25</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="87">
         <v>5.49</v>
       </c>
-      <c r="I26" s="121">
+      <c r="I26" s="100">
         <v>5.76</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="130"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="108"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="85">
         <v>5</v>
       </c>
-      <c r="D27" s="108">
+      <c r="D27" s="87">
         <v>4.26</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="87">
         <v>4.5</v>
       </c>
-      <c r="F27" s="108">
+      <c r="F27" s="87">
         <v>4.74</v>
       </c>
-      <c r="G27" s="108">
+      <c r="G27" s="87">
         <v>5.25</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="87">
         <v>5.49</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="100">
         <v>5.76</v>
       </c>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="130"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="108"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="92" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="85">
         <v>3.3</v>
       </c>
-      <c r="D28" s="108">
+      <c r="D28" s="87">
         <v>2.82</v>
       </c>
-      <c r="E28" s="108">
+      <c r="E28" s="87">
         <v>2.98</v>
       </c>
-      <c r="F28" s="108">
+      <c r="F28" s="87">
         <v>3.14</v>
       </c>
-      <c r="G28" s="108">
+      <c r="G28" s="87">
         <v>3.48</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="87">
         <v>3.62</v>
       </c>
-      <c r="I28" s="121">
+      <c r="I28" s="100">
         <v>3.8</v>
       </c>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="130"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="108"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="92" t="s">
         <v>472</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="85">
         <v>3.3</v>
       </c>
-      <c r="D29" s="108">
+      <c r="D29" s="87">
         <v>2.82</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="87">
         <v>2.98</v>
       </c>
-      <c r="F29" s="108">
+      <c r="F29" s="87">
         <v>3.14</v>
       </c>
-      <c r="G29" s="108">
+      <c r="G29" s="87">
         <v>3.48</v>
       </c>
-      <c r="H29" s="108">
+      <c r="H29" s="87">
         <v>3.62</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="100">
         <v>3.8</v>
       </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="130"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="108"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="85">
         <v>1.8</v>
       </c>
-      <c r="D30" s="108">
+      <c r="D30" s="87">
         <v>1.53</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="87">
         <v>1.62</v>
       </c>
-      <c r="F30" s="108">
+      <c r="F30" s="87">
         <v>1.71</v>
       </c>
-      <c r="G30" s="108">
+      <c r="G30" s="87">
         <v>1.89</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="87">
         <v>1.98</v>
       </c>
-      <c r="I30" s="121">
+      <c r="I30" s="100">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J30" s="132"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="130"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="108"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="92" t="s">
         <v>474</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C31" s="106">
+      <c r="C31" s="85">
         <v>1.8</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="87">
         <v>1.53</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="87">
         <v>1.62</v>
       </c>
-      <c r="F31" s="108">
+      <c r="F31" s="87">
         <v>1.71</v>
       </c>
-      <c r="G31" s="108">
+      <c r="G31" s="87">
         <v>1.89</v>
       </c>
-      <c r="H31" s="108">
+      <c r="H31" s="87">
         <v>1.98</v>
       </c>
-      <c r="I31" s="121">
+      <c r="I31" s="100">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="130"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="108"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="92" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="85">
         <v>3</v>
       </c>
-      <c r="D32" s="108">
+      <c r="D32" s="87">
         <v>1.82</v>
       </c>
-      <c r="E32" s="108">
+      <c r="E32" s="87">
         <v>1.96</v>
       </c>
-      <c r="F32" s="108">
+      <c r="F32" s="87">
         <v>2.1</v>
       </c>
-      <c r="G32" s="108">
+      <c r="G32" s="87">
         <v>3.3</v>
       </c>
-      <c r="H32" s="108">
+      <c r="H32" s="87">
         <v>3.46</v>
       </c>
-      <c r="I32" s="121">
+      <c r="I32" s="100">
         <v>3.6</v>
       </c>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="130"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="108"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="C33" s="106" t="s">
+      <c r="C33" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D33" s="108">
+      <c r="D33" s="87">
         <v>0</v>
       </c>
-      <c r="E33" s="108">
+      <c r="E33" s="87">
         <v>0</v>
       </c>
-      <c r="F33" s="108">
+      <c r="F33" s="87">
         <v>0</v>
       </c>
-      <c r="G33" s="108">
+      <c r="G33" s="87">
         <v>25500</v>
       </c>
-      <c r="H33" s="108">
+      <c r="H33" s="87">
         <v>25500</v>
       </c>
-      <c r="I33" s="121">
+      <c r="I33" s="100">
         <v>25500</v>
       </c>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="130"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="108"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="C34" s="106" t="s">
+      <c r="C34" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D34" s="108">
+      <c r="D34" s="87">
         <v>0</v>
       </c>
-      <c r="E34" s="108">
+      <c r="E34" s="87">
         <v>0</v>
       </c>
-      <c r="F34" s="108">
+      <c r="F34" s="87">
         <v>0</v>
       </c>
-      <c r="G34" s="108">
+      <c r="G34" s="87">
         <v>25500</v>
       </c>
-      <c r="H34" s="108">
+      <c r="H34" s="87">
         <v>25500</v>
       </c>
-      <c r="I34" s="121">
+      <c r="I34" s="100">
         <v>25500</v>
       </c>
-      <c r="J34" s="132"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="130"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="108"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D35" s="108">
+      <c r="D35" s="87">
         <v>0</v>
       </c>
-      <c r="E35" s="108">
+      <c r="E35" s="87">
         <v>0</v>
       </c>
-      <c r="F35" s="108">
+      <c r="F35" s="87">
         <v>0</v>
       </c>
-      <c r="G35" s="108">
+      <c r="G35" s="87">
         <v>25500</v>
       </c>
-      <c r="H35" s="108">
+      <c r="H35" s="87">
         <v>25500</v>
       </c>
-      <c r="I35" s="121">
+      <c r="I35" s="100">
         <v>25500</v>
       </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="130"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="108"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="93" t="s">
         <v>479</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D36" s="108">
+      <c r="D36" s="87">
         <v>0</v>
       </c>
-      <c r="E36" s="108">
+      <c r="E36" s="87">
         <v>0</v>
       </c>
-      <c r="F36" s="108">
+      <c r="F36" s="87">
         <v>0</v>
       </c>
-      <c r="G36" s="108">
+      <c r="G36" s="87">
         <v>25500</v>
       </c>
-      <c r="H36" s="108">
+      <c r="H36" s="87">
         <v>25500</v>
       </c>
-      <c r="I36" s="121">
+      <c r="I36" s="100">
         <v>25500</v>
       </c>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="130"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="108"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="91" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="87">
         <v>-128</v>
       </c>
-      <c r="E37" s="108">
+      <c r="E37" s="87">
         <v>-128</v>
       </c>
-      <c r="F37" s="108">
+      <c r="F37" s="87">
         <v>-26</v>
       </c>
-      <c r="G37" s="108">
+      <c r="G37" s="87">
         <v>76</v>
       </c>
-      <c r="H37" s="108">
+      <c r="H37" s="87">
         <v>127</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="100">
         <v>127</v>
       </c>
-      <c r="J37" s="132"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="130"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="108"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D38" s="108">
+      <c r="D38" s="87">
         <v>-128</v>
       </c>
-      <c r="E38" s="108">
+      <c r="E38" s="87">
         <v>-128</v>
       </c>
-      <c r="F38" s="108">
+      <c r="F38" s="87">
         <v>-26</v>
       </c>
-      <c r="G38" s="108">
+      <c r="G38" s="87">
         <v>76</v>
       </c>
-      <c r="H38" s="108">
+      <c r="H38" s="87">
         <v>127</v>
       </c>
-      <c r="I38" s="121">
+      <c r="I38" s="100">
         <v>127</v>
       </c>
-      <c r="J38" s="132"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="130"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="108"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="E39" s="107" t="s">
+      <c r="E39" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="H39" s="107" t="s">
+      <c r="H39" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="I39" s="120" t="s">
+      <c r="I39" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="J39" s="132"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="130"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="108"/>
     </row>
     <row r="40" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="94" t="s">
         <v>483</v>
       </c>
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="95" t="s">
         <v>467</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="E40" s="118" t="s">
+      <c r="E40" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="F40" s="118" t="s">
+      <c r="F40" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="G40" s="118" t="s">
+      <c r="G40" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="I40" s="122" t="s">
+      <c r="I40" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="J40" s="134"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="131"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
